--- a/PCA_analysis.xlsx
+++ b/PCA_analysis.xlsx
@@ -8,27 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammad/Desktop/Bsc prj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A45BDAA0-140C-A842-A929-D2AF81648FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A00D074-73F4-6541-A8CE-683C6B326A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{82CFB043-4654-F746-AEF7-EE1775F24098}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{82CFB043-4654-F746-AEF7-EE1775F24098}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$14:$C$23</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$14:$D$23</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$14:$C$23</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$D$14:$D$23</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$14:$C$23</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$14:$D$23</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$14:$C$23</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$14:$D$23</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$14:$C$23</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$14:$D$23</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$14:$C$23</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$D$14:$D$23</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,32 +33,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>255-img: wavelet</t>
+    <t xml:space="preserve"> Image: IVG_Nolattice
+Reversed image: hvg_Nolattice
+Reversed image: ivg_Nolattice</t>
   </si>
   <si>
-    <t>Img: wavelet</t>
+    <t>Image: wavelet</t>
   </si>
   <si>
-    <t>255-Img: HVG_lattice</t>
+    <t>Reversed image: wavelet</t>
   </si>
   <si>
-    <t>255-Img: IVG_lattice</t>
+    <t>Image: IHVG_lattice</t>
   </si>
   <si>
-    <t>Img: HVG_lattice</t>
+    <t>Image: IHVG_Nolattice</t>
   </si>
   <si>
-    <t>Img: IVG_lattice</t>
+    <t>Reversed image IHVG_lattice</t>
   </si>
   <si>
-    <t>Img: HVG_Nolattice</t>
+    <t>Reversed image: INVG_lattice</t>
   </si>
   <si>
-    <t>Img: IVG_Nolattice
-255-Img: hvg_Nolattice
-255-Img: ivg_Nolattice</t>
+    <t>Image: INVG_lattice</t>
+  </si>
+  <si>
+    <t>0.902*0.36+0.0645*7+0.03*18</t>
   </si>
 </sst>
 </file>
@@ -119,6 +108,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -162,7 +156,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:explosion val="24"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -379,6 +372,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-7F5D-8F45-BAB7-EF06152B0365}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -400,14 +398,61 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-7F5D-8F45-BAB7-EF06152B0365}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17988457139057065"/>
+                  <c:y val="0.11799455258450316"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-B4AA-5C4A-8EC2-4C90589A2D59}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14707026280928415"/>
+                  <c:y val="-0.15713913463443882"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-B4AA-5C4A-8EC2-4C90589A2D59}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10415509556536776"/>
-                  <c:y val="-9.5811778647112919E-2"/>
+                  <c:x val="0.14173634418727585"/>
+                  <c:y val="-0.12585744633894677"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -427,8 +472,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.2973422207819084E-2"/>
-                  <c:y val="-5.4253909885797645E-3"/>
+                  <c:x val="0.18265450974267336"/>
+                  <c:y val="-1.1331038811117397E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -448,8 +493,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.664897089113593E-2"/>
-                  <c:y val="1.7786974357828562E-2"/>
+                  <c:x val="0.1631723664511221"/>
+                  <c:y val="8.6462653141670717E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -469,8 +514,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.2834742097856428E-2"/>
-                  <c:y val="-4.4883795589365415E-2"/>
+                  <c:x val="4.936914139479334E-3"/>
+                  <c:y val="-1.9130394030171593E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -511,29 +556,27 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.13307930420428712"/>
-                  <c:y val="1.7323666529518774E-2"/>
+                  <c:x val="0.12851855095818421"/>
+                  <c:y val="-1.8839137616559271E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
+                <a:noFill/>
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
               <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
                   <a:noAutofit/>
                 </a:bodyPr>
                 <a:lstStyle/>
                 <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:pPr algn="ctr">
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="lt1"/>
+                        <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
@@ -553,8 +596,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.18262263774054072"/>
-                      <c:h val="0.11417472143221268"/>
+                      <c:w val="0.24327477855532384"/>
+                      <c:h val="0.11417469244363461"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -564,24 +607,22 @@
               </c:extLst>
             </c:dLbl>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr algn="ctr">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -622,30 +663,30 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>255-Img: HVG_lattice</c:v>
+                  <c:v>Reversed image IHVG_lattice</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>255-Img: IVG_lattice</c:v>
+                  <c:v>Reversed image: INVG_lattice</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Img: IVG_lattice</c:v>
+                  <c:v>Image: INVG_lattice</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Img: HVG_lattice</c:v>
+                  <c:v>Image: IHVG_lattice</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Img: HVG_Nolattice</c:v>
+                  <c:v>Image: IHVG_Nolattice</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>255-img: wavelet</c:v>
+                  <c:v>Reversed image: wavelet</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Img: wavelet</c:v>
+                  <c:v>Image: wavelet</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Img: IVG_Nolattice
-255-Img: hvg_Nolattice
-255-Img: ivg_Nolattice</c:v>
+                  <c:v> Image: IVG_Nolattice
+Reversed image: hvg_Nolattice
+Reversed image: ivg_Nolattice</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -720,16 +761,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:pattFill prst="dkDnDiag">
-      <a:fgClr>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-        </a:schemeClr>
-      </a:fgClr>
-      <a:bgClr>
-        <a:schemeClr val="lt1"/>
-      </a:bgClr>
-    </a:pattFill>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
@@ -756,7 +790,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1335,16 +1368,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>498929</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>513404</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>113394</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>680659</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>81990</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>153940</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1369,493 +1402,7 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>283482</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>192768</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>22680</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>147410</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F669007D-4B9B-7D09-1BA8-FAA4DAD9D8E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8685893" y="5204732"/>
-          <a:ext cx="1394733" cy="566964"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" anchor="ctr"/>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>6.45%</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> global </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>93.55% local </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.34374</cdr:x>
-      <cdr:y>0.70585</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.48634</cdr:x>
-      <cdr:y>0.78883</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="Rectangle 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB3D81C-50DF-5A3B-9F0F-866CCF2168B8}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3361774" y="4822374"/>
-          <a:ext cx="1394733" cy="566964"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:noFill/>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" anchor="ctr"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>3%</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> global </a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>97% local </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.77913</cdr:x>
-      <cdr:y>0.02735</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.92174</cdr:x>
-      <cdr:y>0.11034</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0E293B1-41B3-87CD-B735-99C15976D83D}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7620000" y="186871"/>
-          <a:ext cx="1394733" cy="566964"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:noFill/>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>36%</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> global </a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>64% local </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2155,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEB1CD9-1A78-7C4F-8E4E-ED04E81D24C9}">
-  <dimension ref="C14:D21"/>
+  <dimension ref="C14:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2168,7 +1715,7 @@
   <sheetData>
     <row r="14" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>29.004999999999999</v>
@@ -2176,7 +1723,7 @@
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>23.957999999999998</v>
@@ -2184,7 +1731,7 @@
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>17.588000000000001</v>
@@ -2192,7 +1739,7 @@
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>10.478</v>
@@ -2200,7 +1747,7 @@
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <v>7.1749999999999998</v>
@@ -2208,7 +1755,7 @@
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>6.26</v>
@@ -2224,10 +1771,18 @@
     </row>
     <row r="21" spans="3:4" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0.90200000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>1.3162199999999999</v>
       </c>
     </row>
   </sheetData>
